--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-129226.7670617819</v>
+        <v>-129663.0827362287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996856</v>
+        <v>218615.8834996863</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>203.5011924714084</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>9.018446680387964</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +738,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>66.14909891004966</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>173.2369389990739</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24025878283131</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>117.6548529718308</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>218.5137765704389</v>
       </c>
       <c r="H5" t="n">
-        <v>325.9688598528435</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>152.8649127623846</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -987,7 +987,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>104.7387853841661</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>81.94754050331561</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>128.6609379951667</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>63.1401259933132</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>58.72465793940852</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1215,19 +1215,19 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>50.42174264793019</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1260,7 +1260,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1269,7 +1269,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>205.5285978058152</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.68280137235</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.074167239533035</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>298.2086467078061</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2012677100158</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G11" t="n">
         <v>320.048489265321</v>
       </c>
       <c r="H11" t="n">
-        <v>27.35807864557836</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825904</v>
+        <v>79.19456938825903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091667</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>130.220899391266</v>
@@ -1427,16 +1427,16 @@
         <v>160.442025508113</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479852</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>267.0151234259421</v>
+        <v>117.2055604945623</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586887</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>297.7119794548875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1452,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>122.8847593541863</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1512,7 +1512,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>181.3723269554795</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250312</v>
+        <v>6.061976329038079</v>
       </c>
       <c r="C13" t="n">
-        <v>76.0253524279036</v>
+        <v>76.02535242790358</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548199</v>
+        <v>59.64671682548197</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126144</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944775</v>
+        <v>59.06139100944773</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>75.33609373079557</v>
       </c>
       <c r="H13" t="n">
-        <v>65.884461353486</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831535</v>
+        <v>50.86655653831534</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673266</v>
+        <v>56.13210615673265</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>192.4238797007582</v>
       </c>
       <c r="V13" t="n">
-        <v>166.2334939821287</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>11.93887806851284</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X13" t="n">
         <v>137.0454820485451</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>298.2086467078061</v>
+        <v>298.208646707806</v>
       </c>
       <c r="C14" t="n">
-        <v>286.2199636654878</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>277.2012677100158</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G14" t="n">
         <v>320.048489265321</v>
       </c>
       <c r="H14" t="n">
-        <v>237.5986042436309</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825904</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091667</v>
+        <v>93.46222820091666</v>
       </c>
       <c r="T14" t="n">
         <v>130.220899391266</v>
       </c>
       <c r="U14" t="n">
-        <v>160.0836599972673</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.410313044018807</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y14" t="n">
         <v>297.7119794548875</v>
@@ -1695,7 +1695,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841207</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>53.1329711713359</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250312</v>
+        <v>89.8253575825031</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.02535242790358</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548197</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126142</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.06139100944773</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079558</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>65.884461353486</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831535</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673266</v>
+        <v>56.13210615673265</v>
       </c>
       <c r="S16" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.9527062374451</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
         <v>192.4238797007582</v>
       </c>
       <c r="V16" t="n">
-        <v>166.2334939821287</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>191.400380052742</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.865249289466362</v>
+        <v>92.49065345686878</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>86.20741778068896</v>
       </c>
       <c r="V17" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205614</v>
       </c>
       <c r="W17" t="n">
         <v>192.780515698518</v>
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>143.2597570679445</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
@@ -2451,7 +2451,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612603</v>
+        <v>261.4420352612605</v>
       </c>
       <c r="C26" t="n">
-        <v>249.453352218942</v>
+        <v>249.4533522189422</v>
       </c>
       <c r="D26" t="n">
-        <v>240.43465626347</v>
+        <v>240.4346562634701</v>
       </c>
       <c r="E26" t="n">
-        <v>262.1767938333755</v>
+        <v>262.1767938333757</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3486099213527</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2818778187752</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H26" t="n">
-        <v>200.8319927970851</v>
+        <v>200.8319927970853</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171329</v>
+        <v>42.42795794171343</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437092</v>
+        <v>56.69561675437106</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472028</v>
+        <v>93.45428794472042</v>
       </c>
       <c r="U26" t="n">
-        <v>123.6754140615672</v>
+        <v>123.6754140615674</v>
       </c>
       <c r="V26" t="n">
-        <v>204.9484125014394</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W26" t="n">
-        <v>230.2485119793963</v>
+        <v>230.2485119793965</v>
       </c>
       <c r="X26" t="n">
-        <v>249.5487702121429</v>
+        <v>249.5487702121431</v>
       </c>
       <c r="Y26" t="n">
-        <v>260.9453680083417</v>
+        <v>260.9453680083418</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
-        <v>160.0866360314548</v>
+        <v>145.5211447459513</v>
       </c>
       <c r="D27" t="n">
         <v>137.45025063969</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595736</v>
+        <v>53.05874613595751</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135785</v>
+        <v>39.25874098135799</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893624</v>
+        <v>22.88010537893638</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471568</v>
+        <v>21.82785523471583</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290199</v>
+        <v>22.29477956290214</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424983</v>
+        <v>38.56948228424997</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694025</v>
+        <v>29.11784990694039</v>
       </c>
       <c r="I28" t="n">
-        <v>14.0999450917696</v>
+        <v>14.09994509176974</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018691</v>
+        <v>19.36549471018705</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877065</v>
+        <v>82.91159610877079</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1860947908993</v>
+        <v>102.1860947908994</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542125</v>
+        <v>155.6572682542126</v>
       </c>
       <c r="V28" t="n">
-        <v>129.466882535583</v>
+        <v>129.4668825355831</v>
       </c>
       <c r="W28" t="n">
-        <v>154.6337686061962</v>
+        <v>154.6337686061964</v>
       </c>
       <c r="X28" t="n">
-        <v>100.2788706019993</v>
+        <v>100.2788706019995</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806702</v>
+        <v>91.15373835806716</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612602</v>
+        <v>261.4420352612605</v>
       </c>
       <c r="C29" t="n">
-        <v>249.453352218942</v>
+        <v>249.4533522189422</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4346562634699</v>
+        <v>240.4346562634713</v>
       </c>
       <c r="E29" t="n">
-        <v>262.1767938333755</v>
+        <v>262.1767938333757</v>
       </c>
       <c r="F29" t="n">
-        <v>281.3486099213526</v>
+        <v>281.3486099213528</v>
       </c>
       <c r="G29" t="n">
-        <v>283.2818778187752</v>
+        <v>283.2818778187753</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8319927970851</v>
+        <v>200.8319927970853</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171323</v>
+        <v>42.42795794171343</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437086</v>
+        <v>56.69561675437106</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472022</v>
+        <v>93.45428794472042</v>
       </c>
       <c r="U29" t="n">
-        <v>123.6754140615672</v>
+        <v>123.6754140615674</v>
       </c>
       <c r="V29" t="n">
-        <v>204.9484125014393</v>
+        <v>204.9484125014395</v>
       </c>
       <c r="W29" t="n">
-        <v>230.2485119793963</v>
+        <v>230.2485119793965</v>
       </c>
       <c r="X29" t="n">
-        <v>249.5487702121452</v>
+        <v>249.5487702121431</v>
       </c>
       <c r="Y29" t="n">
-        <v>260.9453680083416</v>
+        <v>260.9453680083418</v>
       </c>
     </row>
     <row r="30">
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>172.2327615101711</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595731</v>
+        <v>53.05874613595751</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135779</v>
+        <v>39.25874098135799</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893618</v>
+        <v>22.88010537893638</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471563</v>
+        <v>21.82785523471583</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290194</v>
+        <v>22.29477956290214</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424977</v>
+        <v>38.56948228424997</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694019</v>
+        <v>29.11784990694039</v>
       </c>
       <c r="I31" t="n">
-        <v>14.09994509176954</v>
+        <v>14.09994509176974</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018685</v>
+        <v>19.36549471018705</v>
       </c>
       <c r="S31" t="n">
-        <v>82.9115961087706</v>
+        <v>82.91159610877079</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1860947908992</v>
+        <v>102.1860947908994</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542124</v>
+        <v>155.6572682542126</v>
       </c>
       <c r="V31" t="n">
-        <v>129.4668825355829</v>
+        <v>129.4668825355831</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6337686061962</v>
+        <v>154.6337686061964</v>
       </c>
       <c r="X31" t="n">
-        <v>100.2788706019993</v>
+        <v>100.2788706019995</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806696</v>
+        <v>91.15373835806716</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.327175636089</v>
+        <v>253.3271756360891</v>
       </c>
       <c r="C32" t="n">
         <v>241.3384925937708</v>
       </c>
       <c r="D32" t="n">
-        <v>232.3197966382987</v>
+        <v>232.3197966382988</v>
       </c>
       <c r="E32" t="n">
         <v>254.0619342082043</v>
       </c>
       <c r="F32" t="n">
-        <v>273.2337502961814</v>
+        <v>273.2337502961815</v>
       </c>
       <c r="G32" t="n">
         <v>275.167018193604</v>
@@ -3047,7 +3047,7 @@
         <v>192.7171331719139</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31309831654201</v>
+        <v>34.31309831654207</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.58075712919964</v>
+        <v>48.5807571291997</v>
       </c>
       <c r="T32" t="n">
-        <v>85.339428319549</v>
+        <v>85.33942831954906</v>
       </c>
       <c r="U32" t="n">
         <v>115.560554436396</v>
       </c>
       <c r="V32" t="n">
-        <v>196.8335528762681</v>
+        <v>196.8335528762682</v>
       </c>
       <c r="W32" t="n">
-        <v>222.133652354225</v>
+        <v>222.1336523542251</v>
       </c>
       <c r="X32" t="n">
-        <v>241.4339105869716</v>
+        <v>241.4339105869717</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.8305083831704</v>
+        <v>252.8305083831705</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3174,7 +3174,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.5961130869169</v>
+        <v>176.0306218014133</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>44.94388651078609</v>
+        <v>44.94388651078614</v>
       </c>
       <c r="C34" t="n">
-        <v>31.14388135618657</v>
+        <v>31.14388135618663</v>
       </c>
       <c r="D34" t="n">
-        <v>14.76524575376496</v>
+        <v>14.76524575376502</v>
       </c>
       <c r="E34" t="n">
-        <v>13.71299560954441</v>
+        <v>13.71299560954446</v>
       </c>
       <c r="F34" t="n">
-        <v>14.17991993773072</v>
+        <v>14.17991993773077</v>
       </c>
       <c r="G34" t="n">
-        <v>30.45462265907855</v>
+        <v>30.45462265907861</v>
       </c>
       <c r="H34" t="n">
-        <v>21.00299028176897</v>
+        <v>21.00299028176903</v>
       </c>
       <c r="I34" t="n">
-        <v>5.985085466598321</v>
+        <v>5.985085466598377</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.25063508501563</v>
+        <v>11.25063508501569</v>
       </c>
       <c r="S34" t="n">
-        <v>74.79673648359937</v>
+        <v>74.79673648359943</v>
       </c>
       <c r="T34" t="n">
-        <v>94.07123516572801</v>
+        <v>94.07123516572807</v>
       </c>
       <c r="U34" t="n">
         <v>147.5424086290412</v>
@@ -3247,13 +3247,13 @@
         <v>121.3520229104117</v>
       </c>
       <c r="W34" t="n">
-        <v>146.5189089810249</v>
+        <v>146.518908981025</v>
       </c>
       <c r="X34" t="n">
-        <v>92.16401097682805</v>
+        <v>92.16401097682811</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.03887873289574</v>
+        <v>83.0388787328958</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3873,7 +3873,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921696</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.9740389803821</v>
+        <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
         <v>211.9853559380638</v>
@@ -3995,7 +3995,7 @@
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835063</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349269</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T44" t="n">
-        <v>55.98629166384205</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068901</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V44" t="n">
         <v>167.4804162205612</v>
@@ -4043,7 +4043,7 @@
         <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274635</v>
+        <v>223.4773717274634</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4110,7 +4110,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>201.7443531921692</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507914</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479621</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371605</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789243</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002106</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470473</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W46" t="n">
         <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.8108743211211</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718879</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.751153464857</v>
+        <v>629.2923109092278</v>
       </c>
       <c r="C2" t="n">
-        <v>1975.751153464857</v>
+        <v>629.2923109092278</v>
       </c>
       <c r="D2" t="n">
-        <v>1770.194393392727</v>
+        <v>629.2923109092278</v>
       </c>
       <c r="E2" t="n">
-        <v>1375.408673498834</v>
+        <v>234.5065910153347</v>
       </c>
       <c r="F2" t="n">
-        <v>961.2574828090039</v>
+        <v>224.3958043659091</v>
       </c>
       <c r="G2" t="n">
-        <v>545.1534962631919</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="H2" t="n">
         <v>212.3322218605011</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="J2" t="n">
         <v>111.5135673421028</v>
       </c>
       <c r="K2" t="n">
-        <v>351.6539393868856</v>
+        <v>228.7015208236816</v>
       </c>
       <c r="L2" t="n">
-        <v>699.5393124718319</v>
+        <v>576.5868939086279</v>
       </c>
       <c r="M2" t="n">
-        <v>1092.77847872492</v>
+        <v>969.8260601617158</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.109837412635</v>
+        <v>1348.157418849431</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.114421885469</v>
+        <v>1653.162003322265</v>
       </c>
       <c r="P2" t="n">
-        <v>1975.751153464857</v>
+        <v>1881.318899778319</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="R2" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="S2" t="n">
-        <v>1975.751153464857</v>
+        <v>1788.52217809521</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.751153464857</v>
+        <v>1779.412635993808</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.751153464857</v>
+        <v>1779.412635993808</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.751153464857</v>
+        <v>1779.412635993808</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.751153464857</v>
+        <v>1416.877705851409</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.751153464857</v>
+        <v>1416.877705851409</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.751153464857</v>
+        <v>1023.335850427247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>336.4182527645942</v>
+        <v>628.3956108355804</v>
       </c>
       <c r="C3" t="n">
-        <v>174.7145800055489</v>
+        <v>628.3956108355804</v>
       </c>
       <c r="D3" t="n">
-        <v>107.8973083792361</v>
+        <v>489.5569738257925</v>
       </c>
       <c r="E3" t="n">
-        <v>107.8973083792361</v>
+        <v>342.5289638826637</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8973083792361</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8973083792361</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H3" t="n">
         <v>107.8973083792361</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="J3" t="n">
-        <v>99.76916960240328</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="K3" t="n">
-        <v>329.259722162592</v>
+        <v>243.6975935178108</v>
       </c>
       <c r="L3" t="n">
-        <v>695.0815673327077</v>
+        <v>609.5194386879265</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.114920842934</v>
+        <v>1094.552792198153</v>
       </c>
       <c r="N3" t="n">
-        <v>1180.114920842934</v>
+        <v>1583.551202680705</v>
       </c>
       <c r="O3" t="n">
-        <v>1515.883604403565</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="P3" t="n">
-        <v>1817.979523679262</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559802</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="S3" t="n">
-        <v>1763.167397572543</v>
+        <v>1822.951666477596</v>
       </c>
       <c r="T3" t="n">
-        <v>1574.482293738528</v>
+        <v>1647.964859407824</v>
       </c>
       <c r="U3" t="n">
-        <v>1355.987501336838</v>
+        <v>1647.964859407824</v>
       </c>
       <c r="V3" t="n">
-        <v>1127.591878785172</v>
+        <v>1419.569236856158</v>
       </c>
       <c r="W3" t="n">
-        <v>886.2760100184818</v>
+        <v>1178.253368089468</v>
       </c>
       <c r="X3" t="n">
-        <v>688.3590218962763</v>
+        <v>980.3363799672626</v>
       </c>
       <c r="Y3" t="n">
-        <v>495.8376955458551</v>
+        <v>787.8150536168414</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>571.5742683152296</v>
+        <v>191.99567804352</v>
       </c>
       <c r="C4" t="n">
-        <v>571.5742683152296</v>
+        <v>191.99567804352</v>
       </c>
       <c r="D4" t="n">
-        <v>571.5742683152296</v>
+        <v>191.99567804352</v>
       </c>
       <c r="E4" t="n">
-        <v>419.5652540765484</v>
+        <v>191.99567804352</v>
       </c>
       <c r="F4" t="n">
-        <v>367.8074169221733</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="G4" t="n">
-        <v>198.8876682900233</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="H4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="I4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394054</v>
+        <v>73.11921081394053</v>
       </c>
       <c r="L4" t="n">
         <v>173.7262902142</v>
@@ -4516,22 +4516,22 @@
         <v>571.5742683152296</v>
       </c>
       <c r="T4" t="n">
-        <v>571.5742683152296</v>
+        <v>452.7309824850974</v>
       </c>
       <c r="U4" t="n">
-        <v>571.5742683152296</v>
+        <v>452.7309824850974</v>
       </c>
       <c r="V4" t="n">
-        <v>571.5742683152296</v>
+        <v>191.99567804352</v>
       </c>
       <c r="W4" t="n">
-        <v>571.5742683152296</v>
+        <v>191.99567804352</v>
       </c>
       <c r="X4" t="n">
-        <v>571.5742683152296</v>
+        <v>191.99567804352</v>
       </c>
       <c r="Y4" t="n">
-        <v>571.5742683152296</v>
+        <v>191.99567804352</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1975.751153464857</v>
+        <v>825.0977536119061</v>
       </c>
       <c r="C5" t="n">
-        <v>1593.817394797664</v>
+        <v>443.1639949447135</v>
       </c>
       <c r="D5" t="n">
-        <v>1593.817394797664</v>
+        <v>443.1639949447135</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.031674903771</v>
+        <v>443.1639949447135</v>
       </c>
       <c r="F5" t="n">
-        <v>784.8804842139409</v>
+        <v>433.0532082952878</v>
       </c>
       <c r="G5" t="n">
-        <v>368.7764976681289</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="H5" t="n">
-        <v>39.51502306929713</v>
+        <v>212.3322218605011</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="J5" t="n">
-        <v>39.51502306929713</v>
+        <v>111.5135673421028</v>
       </c>
       <c r="K5" t="n">
-        <v>279.6553951140799</v>
+        <v>351.6539393868856</v>
       </c>
       <c r="L5" t="n">
-        <v>627.5407681990262</v>
+        <v>699.5393124718319</v>
       </c>
       <c r="M5" t="n">
-        <v>1020.779934452114</v>
+        <v>1092.77847872492</v>
       </c>
       <c r="N5" t="n">
-        <v>1399.11129313983</v>
+        <v>1471.109837412635</v>
       </c>
       <c r="O5" t="n">
-        <v>1653.162003322266</v>
+        <v>1776.114421885469</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.31889977832</v>
+        <v>1881.318899778319</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="R5" t="n">
-        <v>1975.751153464857</v>
+        <v>1885.112866960709</v>
       </c>
       <c r="S5" t="n">
-        <v>1975.751153464857</v>
+        <v>1697.883891591063</v>
       </c>
       <c r="T5" t="n">
-        <v>1975.751153464857</v>
+        <v>1473.524945322074</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.751153464857</v>
+        <v>1218.639609036068</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.751153464857</v>
+        <v>1218.639609036068</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.751153464857</v>
+        <v>1218.639609036068</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.751153464857</v>
+        <v>1218.639609036068</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.751153464857</v>
+        <v>825.0977536119061</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.8277835713412</v>
+        <v>782.8046136258679</v>
       </c>
       <c r="C6" t="n">
-        <v>757.124110812296</v>
+        <v>628.3956108355804</v>
       </c>
       <c r="D6" t="n">
-        <v>618.285473802508</v>
+        <v>489.5569738257925</v>
       </c>
       <c r="E6" t="n">
-        <v>471.2574638593792</v>
+        <v>342.5289638826637</v>
       </c>
       <c r="F6" t="n">
-        <v>336.5636658092535</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="G6" t="n">
         <v>207.8351658325381</v>
@@ -4641,55 +4641,55 @@
         <v>107.8973083792361</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="J6" t="n">
-        <v>99.76916960240328</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="K6" t="n">
-        <v>99.76916960240328</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="L6" t="n">
-        <v>149.6518896266357</v>
+        <v>149.651889626635</v>
       </c>
       <c r="M6" t="n">
-        <v>634.6852431368621</v>
+        <v>634.6852431368615</v>
       </c>
       <c r="N6" t="n">
-        <v>1123.683653619414</v>
+        <v>1123.683653619413</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.883604403565</v>
+        <v>1515.883604403564</v>
       </c>
       <c r="P6" t="n">
-        <v>1817.979523679262</v>
+        <v>1817.979523679261</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464857</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="R6" t="n">
-        <v>1915.966884559802</v>
+        <v>1975.751153464856</v>
       </c>
       <c r="S6" t="n">
-        <v>1763.167397572543</v>
+        <v>1822.951666477596</v>
       </c>
       <c r="T6" t="n">
-        <v>1574.482293738528</v>
+        <v>1822.951666477596</v>
       </c>
       <c r="U6" t="n">
-        <v>1574.482293738528</v>
+        <v>1604.456874075906</v>
       </c>
       <c r="V6" t="n">
-        <v>1574.482293738528</v>
+        <v>1376.06125152424</v>
       </c>
       <c r="W6" t="n">
-        <v>1468.685540825229</v>
+        <v>1134.74538275755</v>
       </c>
       <c r="X6" t="n">
-        <v>1270.768552703023</v>
+        <v>1134.74538275755</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.247226352602</v>
+        <v>942.2240564071288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>571.5742683152296</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="C7" t="n">
-        <v>488.798974877537</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="D7" t="n">
-        <v>335.7270817052998</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="E7" t="n">
-        <v>183.7180674666186</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="F7" t="n">
-        <v>183.7180674666186</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="G7" t="n">
-        <v>183.7180674666186</v>
+        <v>169.4755664987584</v>
       </c>
       <c r="H7" t="n">
-        <v>183.7180674666186</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929713</v>
+        <v>39.51502306929711</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394054</v>
+        <v>73.11921081394053</v>
       </c>
       <c r="L7" t="n">
         <v>173.7262902142</v>
@@ -4753,22 +4753,22 @@
         <v>571.5742683152296</v>
       </c>
       <c r="T7" t="n">
-        <v>571.5742683152296</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="U7" t="n">
-        <v>571.5742683152296</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="V7" t="n">
-        <v>571.5742683152296</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="W7" t="n">
-        <v>571.5742683152296</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="X7" t="n">
-        <v>571.5742683152296</v>
+        <v>338.3953151309084</v>
       </c>
       <c r="Y7" t="n">
-        <v>571.5742683152296</v>
+        <v>338.3953151309084</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>872.2794333368408</v>
+        <v>1205.444741493018</v>
       </c>
       <c r="C8" t="n">
-        <v>872.2794333368408</v>
+        <v>823.5109828258251</v>
       </c>
       <c r="D8" t="n">
-        <v>872.2794333368408</v>
+        <v>450.6870180530486</v>
       </c>
       <c r="E8" t="n">
-        <v>872.2794333368408</v>
+        <v>450.6870180530486</v>
       </c>
       <c r="F8" t="n">
-        <v>458.1282426470112</v>
+        <v>386.9091130092979</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W8" t="n">
-        <v>2041.894968757528</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="X8" t="n">
-        <v>1659.864828279022</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1266.32297285486</v>
+        <v>1205.444741493018</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>635.4703696503266</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="D9" t="n">
-        <v>161.3375945908657</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="E9" t="n">
-        <v>110.4065414111382</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4890,16 +4890,16 @@
         <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1426.643995670904</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1185.328126904214</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>987.4111387820086</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>794.8898124315874</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.284539084348</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="C10" t="n">
-        <v>246.284539084348</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="D10" t="n">
-        <v>246.284539084348</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="E10" t="n">
-        <v>246.284539084348</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="F10" t="n">
-        <v>246.284539084348</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="G10" t="n">
-        <v>246.284539084348</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4981,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>532.4409405669489</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>532.4409405669489</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>532.4409405669489</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>532.4409405669489</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>532.4409405669489</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>246.284539084348</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="X10" t="n">
-        <v>246.284539084348</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.284539084348</v>
+        <v>287.9270998645308</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>762.0121945733728</v>
+        <v>1597.667903912638</v>
       </c>
       <c r="C11" t="n">
-        <v>762.0121945733728</v>
+        <v>1597.667903912638</v>
       </c>
       <c r="D11" t="n">
-        <v>482.0109140582053</v>
+        <v>1317.66662339747</v>
       </c>
       <c r="E11" t="n">
-        <v>482.0109140582053</v>
+        <v>1015.703587761186</v>
       </c>
       <c r="F11" t="n">
-        <v>482.0109140582053</v>
+        <v>694.3750813289654</v>
       </c>
       <c r="G11" t="n">
-        <v>158.7296117700023</v>
+        <v>371.0937790407625</v>
       </c>
       <c r="H11" t="n">
         <v>131.0951888956807</v>
@@ -5039,25 +5039,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J11" t="n">
-        <v>201.8007338166314</v>
+        <v>214.074731475774</v>
       </c>
       <c r="K11" t="n">
-        <v>532.9166187022968</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L11" t="n">
-        <v>971.7775046281256</v>
+        <v>893.0759894463856</v>
       </c>
       <c r="M11" t="n">
-        <v>1455.992183722096</v>
+        <v>1286.315155699474</v>
       </c>
       <c r="N11" t="n">
-        <v>1925.299055250694</v>
+        <v>1755.622027228072</v>
       </c>
       <c r="O11" t="n">
-        <v>2230.303639723528</v>
+        <v>2060.626611700906</v>
       </c>
       <c r="P11" t="n">
-        <v>2458.460536179582</v>
+        <v>2367.485023338699</v>
       </c>
       <c r="Q11" t="n">
         <v>2552.892789866119</v>
@@ -5066,25 +5066,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.62742699225</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="T11" t="n">
-        <v>2329.09116498087</v>
+        <v>2423.497456092907</v>
       </c>
       <c r="U11" t="n">
-        <v>2167.028512952473</v>
+        <v>2261.43480406451</v>
       </c>
       <c r="V11" t="n">
-        <v>1922.871923106024</v>
+        <v>2017.27821421806</v>
       </c>
       <c r="W11" t="n">
-        <v>1653.159677221234</v>
+        <v>1898.888759173048</v>
       </c>
       <c r="X11" t="n">
-        <v>1363.952221000336</v>
+        <v>1898.888759173048</v>
       </c>
       <c r="Y11" t="n">
-        <v>1063.233049833783</v>
+        <v>1898.888759173048</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D12" t="n">
         <v>629.8711250952965</v>
@@ -5160,10 +5160,10 @@
         <v>1465.558574657912</v>
       </c>
       <c r="X12" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y12" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>424.9177903579405</v>
+        <v>375.2785637882921</v>
       </c>
       <c r="C13" t="n">
-        <v>348.1245050772298</v>
+        <v>298.4852785075814</v>
       </c>
       <c r="D13" t="n">
-        <v>287.8752961626015</v>
+        <v>238.2360695929531</v>
       </c>
       <c r="E13" t="n">
-        <v>228.6889661815293</v>
+        <v>238.2360695929531</v>
       </c>
       <c r="F13" t="n">
-        <v>169.0309954649154</v>
+        <v>178.5780988763392</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0309954649154</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="H13" t="n">
         <v>102.4810345017982</v>
@@ -5197,7 +5197,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J13" t="n">
-        <v>83.214087664999</v>
+        <v>83.21408766499903</v>
       </c>
       <c r="K13" t="n">
         <v>207.793788250525</v>
@@ -5224,25 +5224,25 @@
         <v>1157.632377415578</v>
       </c>
       <c r="S13" t="n">
-        <v>1157.632377415578</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="T13" t="n">
-        <v>1157.632377415578</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="U13" t="n">
-        <v>963.2648221622864</v>
+        <v>842.377743823583</v>
       </c>
       <c r="V13" t="n">
-        <v>795.3522019783179</v>
+        <v>842.377743823583</v>
       </c>
       <c r="W13" t="n">
-        <v>783.2927291818405</v>
+        <v>649.0440265985911</v>
       </c>
       <c r="X13" t="n">
-        <v>644.8629493348253</v>
+        <v>510.6142467515759</v>
       </c>
       <c r="Y13" t="n">
-        <v>515.6504747847114</v>
+        <v>381.4017722014621</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1565.45047189</v>
+        <v>997.6735187187936</v>
       </c>
       <c r="C14" t="n">
-        <v>1276.339397480417</v>
+        <v>997.6735187187936</v>
       </c>
       <c r="D14" t="n">
-        <v>996.3381169652496</v>
+        <v>997.6735187187936</v>
       </c>
       <c r="E14" t="n">
-        <v>694.3750813289655</v>
+        <v>695.7104830825094</v>
       </c>
       <c r="F14" t="n">
-        <v>694.3750813289655</v>
+        <v>374.3819766502888</v>
       </c>
       <c r="G14" t="n">
-        <v>371.0937790407625</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0951888956807</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I14" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J14" t="n">
-        <v>214.0747314757739</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K14" t="n">
-        <v>532.916618702297</v>
+        <v>454.2151035205568</v>
       </c>
       <c r="L14" t="n">
-        <v>880.8019917872432</v>
+        <v>893.0759894463856</v>
       </c>
       <c r="M14" t="n">
         <v>1365.016670881214</v>
@@ -5294,7 +5294,7 @@
         <v>2139.328126882646</v>
       </c>
       <c r="P14" t="n">
-        <v>2458.460536179582</v>
+        <v>2367.485023338699</v>
       </c>
       <c r="Q14" t="n">
         <v>2552.892789866119</v>
@@ -5309,19 +5309,19 @@
         <v>2329.09116498087</v>
       </c>
       <c r="U14" t="n">
-        <v>2167.390498316964</v>
+        <v>2167.028512952473</v>
       </c>
       <c r="V14" t="n">
-        <v>2167.390498316964</v>
+        <v>2158.533247251444</v>
       </c>
       <c r="W14" t="n">
-        <v>2167.390498316964</v>
+        <v>1888.821001366654</v>
       </c>
       <c r="X14" t="n">
-        <v>2167.390498316964</v>
+        <v>1599.613545145757</v>
       </c>
       <c r="Y14" t="n">
-        <v>1866.671327150411</v>
+        <v>1298.894373979204</v>
       </c>
     </row>
     <row r="15">
@@ -5343,13 +5343,13 @@
         <v>468.130497692063</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G15" t="n">
-        <v>204.7081996652219</v>
+        <v>219.4208171253267</v>
       </c>
       <c r="H15" t="n">
-        <v>104.77034221192</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I15" t="n">
         <v>51.10067436208574</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.1280598394564</v>
+        <v>306.9874692551108</v>
       </c>
       <c r="C16" t="n">
-        <v>245.1280598394564</v>
+        <v>230.1941839744001</v>
       </c>
       <c r="D16" t="n">
-        <v>245.1280598394564</v>
+        <v>169.9449750597718</v>
       </c>
       <c r="E16" t="n">
-        <v>245.1280598394564</v>
+        <v>110.7586450786996</v>
       </c>
       <c r="F16" t="n">
-        <v>245.1280598394564</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0309954649154</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H16" t="n">
-        <v>102.4810345017982</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J16" t="n">
-        <v>83.214087664999</v>
+        <v>83.21408766499903</v>
       </c>
       <c r="K16" t="n">
         <v>207.793788250525</v>
@@ -5449,7 +5449,7 @@
         <v>817.7432540506343</v>
       </c>
       <c r="O16" t="n">
-        <v>1007.182413387206</v>
+        <v>1007.182413387207</v>
       </c>
       <c r="P16" t="n">
         <v>1161.126409956227</v>
@@ -5461,25 +5461,25 @@
         <v>1157.632377415577</v>
       </c>
       <c r="S16" t="n">
-        <v>1036.745299076874</v>
+        <v>1157.632377415577</v>
       </c>
       <c r="T16" t="n">
-        <v>896.3890301501617</v>
+        <v>1017.276108488865</v>
       </c>
       <c r="U16" t="n">
-        <v>702.0214748968706</v>
+        <v>822.9085532355741</v>
       </c>
       <c r="V16" t="n">
-        <v>534.1088547129023</v>
+        <v>822.9085532355741</v>
       </c>
       <c r="W16" t="n">
-        <v>340.7751374879104</v>
+        <v>629.5748360105822</v>
       </c>
       <c r="X16" t="n">
-        <v>340.7751374879104</v>
+        <v>491.1450561635672</v>
       </c>
       <c r="Y16" t="n">
-        <v>335.8607442662272</v>
+        <v>397.7201536818816</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J17" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K17" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L17" t="n">
-        <v>711.1249637646204</v>
+        <v>1040.060512746685</v>
       </c>
       <c r="M17" t="n">
-        <v>1104.364130017708</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N17" t="n">
-        <v>1482.695488705424</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O17" t="n">
-        <v>1827.875829091314</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P17" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q17" t="n">
         <v>2479.400528215969</v>
@@ -5549,7 +5549,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V17" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W17" t="n">
         <v>2028.08193847085</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C18" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D18" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E18" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F18" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G18" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H18" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I18" t="n">
         <v>51.10067436208573</v>
@@ -5616,28 +5616,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S18" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T18" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U18" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V18" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W18" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X18" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="19">
@@ -5671,16 +5671,16 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J19" t="n">
-        <v>97.31943502373917</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K19" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L19" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M19" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N19" t="n">
         <v>467.9465500458442</v>
@@ -5729,13 +5729,13 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C20" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D20" t="n">
-        <v>942.7443621478544</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E20" t="n">
-        <v>715.7657787614935</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F20" t="n">
         <v>469.4217245791957</v>
@@ -5750,28 +5750,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J20" t="n">
-        <v>163.2749745479472</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K20" t="n">
-        <v>403.41534659273</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L20" t="n">
-        <v>915.7684941687086</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M20" t="n">
-        <v>1473.475434912829</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N20" t="n">
-        <v>1851.806793600545</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O20" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P20" t="n">
-        <v>2384.968274529432</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R20" t="n">
         <v>2555.033718104287</v>
@@ -5792,7 +5792,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y20" t="n">
         <v>1588.124215583246</v>
@@ -5917,7 +5917,7 @@
         <v>185.3119415069887</v>
       </c>
       <c r="M22" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N22" t="n">
         <v>467.9465500458442</v>
@@ -5981,28 +5981,28 @@
         <v>221.1248745409159</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575747</v>
       </c>
       <c r="I23" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J23" t="n">
-        <v>238.9081644362654</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K23" t="n">
-        <v>479.0485364810481</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L23" t="n">
-        <v>991.4016840570267</v>
+        <v>991.4016840570273</v>
       </c>
       <c r="M23" t="n">
-        <v>1549.108624801147</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N23" t="n">
-        <v>1927.439983488863</v>
+        <v>1762.972208997831</v>
       </c>
       <c r="O23" t="n">
-        <v>2232.444567961697</v>
+        <v>2067.976793470665</v>
       </c>
       <c r="P23" t="n">
         <v>2460.60146441775</v>
@@ -6017,13 +6017,13 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T23" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U23" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702242</v>
       </c>
       <c r="V23" t="n">
-        <v>2222.809732105717</v>
+        <v>2222.809732105716</v>
       </c>
       <c r="W23" t="n">
         <v>2028.08193847085</v>
@@ -6063,7 +6063,7 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I24" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J24" t="n">
         <v>111.3548208951919</v>
@@ -6072,7 +6072,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M24" t="n">
         <v>1191.700572135723</v>
@@ -6090,28 +6090,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R24" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S24" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U24" t="n">
-        <v>1935.270065976268</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V24" t="n">
-        <v>1706.874443424602</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W24" t="n">
-        <v>1465.558574657912</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X24" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y24" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670347</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670347</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208574</v>
+        <v>79.91381386609162</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208574</v>
+        <v>88.18045877629027</v>
       </c>
       <c r="I25" t="n">
-        <v>51.10067436208574</v>
+        <v>88.18045877629027</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208574</v>
+        <v>88.18045877629027</v>
       </c>
       <c r="K25" t="n">
-        <v>84.70486210672915</v>
+        <v>121.7846465209337</v>
       </c>
       <c r="L25" t="n">
-        <v>185.3119415069887</v>
+        <v>222.3917259211932</v>
       </c>
       <c r="M25" t="n">
-        <v>303.3054476345904</v>
+        <v>340.3852320487949</v>
       </c>
       <c r="N25" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O25" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S25" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T25" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W25" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X25" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.398690093979</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C26" t="n">
         <v>1386.425607044543</v>
@@ -6209,67 +6209,67 @@
         <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.737273613386</v>
+        <v>878.7372736133858</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413126</v>
+        <v>594.5467585413122</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132567</v>
+        <v>308.4034476132563</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5428488283221</v>
+        <v>105.5428488283223</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J26" t="n">
-        <v>262.0593281006429</v>
+        <v>262.0593281006427</v>
       </c>
       <c r="K26" t="n">
-        <v>629.5741583183885</v>
+        <v>629.5741583183883</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.739858752425</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.353483178475</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N26" t="n">
-        <v>2086.059300039154</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O26" t="n">
-        <v>2518.438342684951</v>
+        <v>2563.532473508823</v>
       </c>
       <c r="P26" t="n">
-        <v>2873.969697313967</v>
+        <v>2873.96969731397</v>
       </c>
       <c r="Q26" t="n">
-        <v>3095.776409173467</v>
+        <v>3095.776409173469</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.316282743716</v>
+        <v>3134.316282743718</v>
       </c>
       <c r="S26" t="n">
-        <v>3077.047982991826</v>
+        <v>3077.047982991828</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340593</v>
+        <v>2982.649712340595</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672343</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186041</v>
+        <v>2650.706453186043</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.132198661398</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.062733800648</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994242</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.9990861569185</v>
+        <v>927.2864686968139</v>
       </c>
       <c r="C27" t="n">
         <v>780.2954133978732</v>
@@ -6297,19 +6297,19 @@
         <v>231.0064684181153</v>
       </c>
       <c r="H27" t="n">
-        <v>131.0686109648133</v>
+        <v>131.0686109648134</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J27" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K27" t="n">
-        <v>352.4310247481691</v>
+        <v>352.4310247481692</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2528699182848</v>
+        <v>718.2528699182849</v>
       </c>
       <c r="M27" t="n">
         <v>1203.286223428511</v>
@@ -6327,28 +6327,28 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R27" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S27" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T27" t="n">
-        <v>2180.063127130852</v>
+        <v>2165.350509670747</v>
       </c>
       <c r="U27" t="n">
-        <v>1961.568334729162</v>
+        <v>1946.855717269057</v>
       </c>
       <c r="V27" t="n">
-        <v>1733.172712177496</v>
+        <v>1718.460094717391</v>
       </c>
       <c r="W27" t="n">
-        <v>1491.856843410806</v>
+        <v>1477.144225950701</v>
       </c>
       <c r="X27" t="n">
-        <v>1293.9398552886</v>
+        <v>1279.227237828496</v>
       </c>
       <c r="Y27" t="n">
-        <v>1101.418528938179</v>
+        <v>1086.705911478075</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042394</v>
+        <v>252.6345665042404</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836759</v>
+        <v>212.9792725836768</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291949</v>
+        <v>189.8680550291956</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082699</v>
+        <v>167.8197164082706</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518033</v>
+        <v>145.2997370518038</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3406640374095</v>
+        <v>106.3406640374099</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443956</v>
+        <v>76.92869443443976</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J28" t="n">
-        <v>131.1986842898679</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="K28" t="n">
-        <v>164.8028720345113</v>
+        <v>223.6649715724805</v>
       </c>
       <c r="L28" t="n">
-        <v>392.7844096077337</v>
+        <v>370.3525675225785</v>
       </c>
       <c r="M28" t="n">
-        <v>638.1523739082983</v>
+        <v>615.720531823143</v>
       </c>
       <c r="N28" t="n">
-        <v>883.9491738308616</v>
+        <v>734.1428735727434</v>
       </c>
       <c r="O28" t="n">
-        <v>997.7514264949126</v>
+        <v>959.9809782413957</v>
       </c>
       <c r="P28" t="n">
-        <v>1060.71991022305</v>
+        <v>1150.323920142496</v>
       </c>
       <c r="Q28" t="n">
-        <v>1150.323920142494</v>
+        <v>1150.323920142496</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374629</v>
+        <v>1130.762814374631</v>
       </c>
       <c r="S28" t="n">
-        <v>1047.013727396072</v>
+        <v>1047.013727396074</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295073</v>
+        <v>943.7954498295093</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363634</v>
+        <v>786.5658859363652</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125423</v>
+        <v>655.7912571125439</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476977</v>
+        <v>499.5955312476992</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608297</v>
+        <v>398.303742760831</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.229259570863</v>
+        <v>306.2292595708642</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.398690093979</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D29" t="n">
         <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133857</v>
+        <v>878.7372736133864</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413123</v>
+        <v>594.5467585413128</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132565</v>
+        <v>308.4034476132568</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5428488283221</v>
+        <v>105.5428488283223</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J29" t="n">
-        <v>262.0593281006429</v>
+        <v>262.0593281006427</v>
       </c>
       <c r="K29" t="n">
-        <v>629.5741583183886</v>
+        <v>629.5741583183883</v>
       </c>
       <c r="L29" t="n">
-        <v>1104.833989576298</v>
+        <v>1104.833989576297</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.353483178477</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039155</v>
+        <v>2131.153430863027</v>
       </c>
       <c r="O29" t="n">
-        <v>2518.438342684952</v>
+        <v>2518.438342684954</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313968</v>
+        <v>2873.96969731397</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173468</v>
+        <v>3095.776409173469</v>
       </c>
       <c r="R29" t="n">
-        <v>3134.316282743717</v>
+        <v>3134.316282743718</v>
       </c>
       <c r="S29" t="n">
         <v>3077.047982991828</v>
@@ -6494,19 +6494,19 @@
         <v>2982.649712340595</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672346</v>
+        <v>2857.725051672345</v>
       </c>
       <c r="V29" t="n">
         <v>2650.706453186043</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661401</v>
+        <v>2418.1321986614</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800648</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994242</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>131.0686109648134</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J30" t="n">
         <v>122.9404721879805</v>
       </c>
       <c r="K30" t="n">
-        <v>352.4310247481691</v>
+        <v>352.4310247481692</v>
       </c>
       <c r="L30" t="n">
-        <v>718.2528699182848</v>
+        <v>718.2528699182849</v>
       </c>
       <c r="M30" t="n">
         <v>1203.286223428511</v>
@@ -6564,10 +6564,10 @@
         <v>2566.619369397076</v>
       </c>
       <c r="R30" t="n">
-        <v>2521.547717952126</v>
+        <v>2506.835100492021</v>
       </c>
       <c r="S30" t="n">
-        <v>2368.748230964866</v>
+        <v>2354.035613504762</v>
       </c>
       <c r="T30" t="n">
         <v>2180.063127130852</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.634566504239</v>
+        <v>252.6345665042404</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836756</v>
+        <v>212.9792725836768</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291946</v>
+        <v>189.8680550291956</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082697</v>
+        <v>167.8197164082706</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518031</v>
+        <v>145.2997370518038</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3406640374094</v>
+        <v>106.3406640374099</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443954</v>
+        <v>76.92869443443976</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487435</v>
+        <v>62.68632565487437</v>
       </c>
       <c r="J31" t="n">
-        <v>62.68632565487435</v>
+        <v>131.1986842898678</v>
       </c>
       <c r="K31" t="n">
-        <v>96.29051339951775</v>
+        <v>292.1773302074739</v>
       </c>
       <c r="L31" t="n">
-        <v>196.8975927997773</v>
+        <v>392.7844096077334</v>
       </c>
       <c r="M31" t="n">
-        <v>442.2655571003419</v>
+        <v>526.1165219036997</v>
       </c>
       <c r="N31" t="n">
-        <v>688.0623570229052</v>
+        <v>771.9133218262627</v>
       </c>
       <c r="O31" t="n">
-        <v>870.3769683219488</v>
+        <v>997.7514264949151</v>
       </c>
       <c r="P31" t="n">
-        <v>1060.71991022305</v>
+        <v>1060.719910223053</v>
       </c>
       <c r="Q31" t="n">
-        <v>1150.323920142493</v>
+        <v>1150.323920142496</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374628</v>
+        <v>1130.762814374631</v>
       </c>
       <c r="S31" t="n">
-        <v>1047.013727396072</v>
+        <v>1047.013727396074</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295067</v>
+        <v>943.7954498295093</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363629</v>
+        <v>786.5658859363652</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125418</v>
+        <v>655.7912571125439</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476972</v>
+        <v>499.5955312476992</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608292</v>
+        <v>398.303742760831</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.2292595708626</v>
+        <v>306.2292595708642</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1578.511661732583</v>
+        <v>1578.511661732584</v>
       </c>
       <c r="C32" t="n">
-        <v>1334.73540658736</v>
+        <v>1334.735406587361</v>
       </c>
       <c r="D32" t="n">
         <v>1100.068945336554</v>
       </c>
       <c r="E32" t="n">
-        <v>843.4407289646301</v>
+        <v>843.4407289646302</v>
       </c>
       <c r="F32" t="n">
         <v>567.4470417967701</v>
@@ -6692,37 +6692,37 @@
         <v>289.5005587729277</v>
       </c>
       <c r="H32" t="n">
-        <v>94.83678789220662</v>
+        <v>94.83678789220667</v>
       </c>
       <c r="I32" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297226</v>
       </c>
       <c r="J32" t="n">
-        <v>267.5838060976603</v>
+        <v>132.1756368957779</v>
       </c>
       <c r="K32" t="n">
-        <v>643.1323473443256</v>
+        <v>507.724178142443</v>
       </c>
       <c r="L32" t="n">
-        <v>1021.484110185686</v>
+        <v>991.0177204292715</v>
       </c>
       <c r="M32" t="n">
-        <v>1550.131445640657</v>
+        <v>1519.665055884242</v>
       </c>
       <c r="N32" t="n">
-        <v>2063.870973530255</v>
+        <v>1928.462804328374</v>
       </c>
       <c r="O32" t="n">
-        <v>2504.283727204971</v>
+        <v>2368.87555800309</v>
       </c>
       <c r="P32" t="n">
-        <v>2867.848792862907</v>
+        <v>2732.440623661026</v>
       </c>
       <c r="Q32" t="n">
-        <v>2962.281046549444</v>
+        <v>2962.281046549445</v>
       </c>
       <c r="R32" t="n">
-        <v>3008.854631148612</v>
+        <v>3008.854631148613</v>
       </c>
       <c r="S32" t="n">
         <v>2959.783159300936</v>
@@ -6731,16 +6731,16 @@
         <v>2873.581716553917</v>
       </c>
       <c r="U32" t="n">
-        <v>2756.853883789881</v>
+        <v>2756.85388378988</v>
       </c>
       <c r="V32" t="n">
         <v>2558.032113207792</v>
       </c>
       <c r="W32" t="n">
-        <v>2333.654686587362</v>
+        <v>2333.654686587363</v>
       </c>
       <c r="X32" t="n">
-        <v>2089.782049630825</v>
+        <v>2089.782049630826</v>
       </c>
       <c r="Y32" t="n">
         <v>1834.397697728633</v>
@@ -6774,7 +6774,7 @@
         <v>128.5593779329113</v>
       </c>
       <c r="I33" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297226</v>
       </c>
       <c r="J33" t="n">
         <v>120.4312391560784</v>
@@ -6801,25 +6801,25 @@
         <v>2564.110136365174</v>
       </c>
       <c r="R33" t="n">
-        <v>2519.038484920224</v>
+        <v>2504.325867460119</v>
       </c>
       <c r="S33" t="n">
-        <v>2366.238997932964</v>
+        <v>2351.52638047286</v>
       </c>
       <c r="T33" t="n">
-        <v>2177.55389409895</v>
+        <v>2162.841276638845</v>
       </c>
       <c r="U33" t="n">
-        <v>1959.05910169726</v>
+        <v>1944.346484237155</v>
       </c>
       <c r="V33" t="n">
-        <v>1730.663479145594</v>
+        <v>1715.950861685489</v>
       </c>
       <c r="W33" t="n">
-        <v>1489.347610378904</v>
+        <v>1474.634992918799</v>
       </c>
       <c r="X33" t="n">
-        <v>1291.430622256698</v>
+        <v>1276.718004796594</v>
       </c>
       <c r="Y33" t="n">
         <v>1098.909295906277</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>192.7475381428434</v>
+        <v>192.7475381428438</v>
       </c>
       <c r="C34" t="n">
-        <v>161.2890721264934</v>
+        <v>161.2890721264937</v>
       </c>
       <c r="D34" t="n">
-        <v>146.3746824762258</v>
+        <v>146.374682476226</v>
       </c>
       <c r="E34" t="n">
-        <v>132.5231717595142</v>
+        <v>132.5231717595145</v>
       </c>
       <c r="F34" t="n">
-        <v>118.200020307261</v>
+        <v>118.2000203072612</v>
       </c>
       <c r="G34" t="n">
-        <v>87.43777519708063</v>
+        <v>87.43777519708075</v>
       </c>
       <c r="H34" t="n">
-        <v>66.22263349832409</v>
+        <v>66.22263349832416</v>
       </c>
       <c r="I34" t="n">
-        <v>60.17709262297225</v>
+        <v>60.17709262297226</v>
       </c>
       <c r="J34" t="n">
-        <v>136.7231622868854</v>
+        <v>136.7231622868853</v>
       </c>
       <c r="K34" t="n">
-        <v>305.7355192334112</v>
+        <v>305.7355192334111</v>
       </c>
       <c r="L34" t="n">
-        <v>406.3425986336707</v>
+        <v>406.3425986336706</v>
       </c>
       <c r="M34" t="n">
-        <v>524.3361047612724</v>
+        <v>659.7442739631547</v>
       </c>
       <c r="N34" t="n">
-        <v>757.5955894709872</v>
+        <v>855.233310419351</v>
       </c>
       <c r="O34" t="n">
-        <v>856.0592359666769</v>
+        <v>953.6969569150407</v>
       </c>
       <c r="P34" t="n">
-        <v>919.0277196948147</v>
+        <v>1016.665440643178</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
       </c>
       <c r="R34" t="n">
-        <v>1005.301162779525</v>
+        <v>1005.301162779526</v>
       </c>
       <c r="S34" t="n">
-        <v>929.7489037051827</v>
+        <v>929.7489037051835</v>
       </c>
       <c r="T34" t="n">
-        <v>834.7274540428311</v>
+        <v>834.7274540428318</v>
       </c>
       <c r="U34" t="n">
-        <v>685.6947180539006</v>
+        <v>685.6947180539013</v>
       </c>
       <c r="V34" t="n">
-        <v>563.1169171342929</v>
+        <v>563.1169171342934</v>
       </c>
       <c r="W34" t="n">
-        <v>415.1180191736615</v>
+        <v>415.1180191736621</v>
       </c>
       <c r="X34" t="n">
-        <v>322.0230585910069</v>
+        <v>322.0230585910074</v>
       </c>
       <c r="Y34" t="n">
-        <v>238.1454033052536</v>
+        <v>238.1454033052541</v>
       </c>
     </row>
     <row r="35">
@@ -6914,37 +6914,37 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478543</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614934</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791959</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409159</v>
+        <v>221.1248745409162</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575747</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J35" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556529</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M35" t="n">
-        <v>1433.299678999773</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N35" t="n">
         <v>1811.631037687489</v>
@@ -6953,22 +6953,22 @@
         <v>2116.635622160323</v>
       </c>
       <c r="P35" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242173</v>
+        <v>2535.611879242174</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480718</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702243</v>
+        <v>2391.981869702244</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672914</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P37" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q37" t="n">
         <v>629.3786802696717</v>
@@ -7126,19 +7126,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X37" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
         <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>643.51631097208</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>991.4016840570263</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1549.108624801147</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1927.439983488862</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O38" t="n">
-        <v>2232.444567961696</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P38" t="n">
-        <v>2460.601464417749</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q38" t="n">
-        <v>2555.033718104286</v>
+        <v>2479.400528215969</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,10 +7275,10 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
         <v>2168.477475838063</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>66.58441399778671</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>81.60589854858324</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>80.49328642396551</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>80.49328642396551</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>80.49328642396551</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>80.49328642396551</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>114.0974741686089</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>214.7045535688684</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>332.6980596964702</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>451.1204014460706</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>549.5840479417602</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7406,28 +7406,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J41" t="n">
         <v>287.5669931259238</v>
       </c>
       <c r="K41" t="n">
-        <v>527.7073651707066</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L41" t="n">
-        <v>915.7684941687087</v>
+        <v>1080.236268659741</v>
       </c>
       <c r="M41" t="n">
-        <v>1309.007660421797</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N41" t="n">
-        <v>1687.339019109512</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O41" t="n">
-        <v>1992.343603582346</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P41" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q41" t="n">
         <v>2479.400528215969</v>
@@ -7485,13 +7485,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L42" t="n">
         <v>706.6672186254962</v>
@@ -7512,13 +7512,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
         <v>1949.982683436373</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>54.02211951749089</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K43" t="n">
         <v>130.9236227683826</v>
@@ -7600,19 +7600,19 @@
         <v>518.1042375041027</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>398.7211345007348</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>305.7929665666896</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>187.443701591621</v>
       </c>
       <c r="X43" t="n">
         <v>123.9983739945291</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>69.77035169433844</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.7443621478542</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E44" t="n">
-        <v>715.7657787614933</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F44" t="n">
         <v>469.4217245791958</v>
@@ -7640,34 +7640,34 @@
         <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575752</v>
+        <v>56.11073664575749</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>527.7073651707065</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L44" t="n">
-        <v>915.7684941687087</v>
+        <v>991.4016840570266</v>
       </c>
       <c r="M44" t="n">
-        <v>1309.007660421797</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N44" t="n">
-        <v>1851.806793600545</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O44" t="n">
-        <v>2156.811378073378</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
@@ -7749,13 +7749,13 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U45" t="n">
         <v>1949.982683436373</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749102</v>
+        <v>54.02211951749096</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670352</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208574</v>
@@ -7804,52 +7804,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>97.31943502373986</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>130.9236227683833</v>
+        <v>130.9236227683829</v>
       </c>
       <c r="L46" t="n">
-        <v>231.5307021686428</v>
+        <v>231.5307021686424</v>
       </c>
       <c r="M46" t="n">
-        <v>349.5242082962445</v>
+        <v>349.5242082962442</v>
       </c>
       <c r="N46" t="n">
-        <v>467.9465500458449</v>
+        <v>467.9465500458446</v>
       </c>
       <c r="O46" t="n">
-        <v>566.4101965415346</v>
+        <v>566.4101965415342</v>
       </c>
       <c r="P46" t="n">
-        <v>629.3786802696724</v>
+        <v>629.378680269672</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696724</v>
+        <v>629.378680269672</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696724</v>
+        <v>629.378680269672</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808921</v>
+        <v>583.4760541808919</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041031</v>
+        <v>518.1042375041029</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007353</v>
+        <v>398.721134500735</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666901</v>
+        <v>305.7929665666899</v>
       </c>
       <c r="W46" t="n">
-        <v>187.4437015916214</v>
+        <v>187.4437015916212</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945293</v>
+        <v>123.9983739945292</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433864</v>
+        <v>69.77035169433856</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>421.3890363425141</v>
+        <v>297.1946741574597</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7994,10 +7994,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>389.5300732727599</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,10 +8055,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>318.241189821731</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8067,16 +8067,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>600.6529294339223</v>
       </c>
       <c r="O3" t="n">
-        <v>455.0197350359906</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8228,10 +8228,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>443.5716757522787</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>294.143958437873</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8292,19 +8292,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>162.9620194542108</v>
+        <v>223.824793730075</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>600.6529294339225</v>
+        <v>600.6529294339223</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8538,10 +8538,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>217.0424937332492</v>
       </c>
       <c r="N9" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>163.9183459425316</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9720,7 +9720,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.092448894497</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -11388,7 +11388,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>512.021015059748</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>286.2199636654878</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>298.9434052799213</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678985</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.2405255980526</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.46222820091666</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>149.8095629313794</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>83.76338125346503</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.59446668126142</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079558</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>65.88446135348599</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6782075553164</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>138.9527062374451</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
-        <v>179.4615019842291</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>286.2199636654877</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.2012677100157</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678985</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.19456938825903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3583655108456014</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479852</v>
+        <v>233.3047109039662</v>
       </c>
       <c r="W14" t="n">
-        <v>267.0151234259421</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586887</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>76.0253524279036</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548199</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126144</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944775</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079557</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>65.88446135348599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.86655653831534</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.6782075553164</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>123.0551005151464</v>
+        <v>35.42969634774397</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-2.376881533027373e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.170003234441556e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-1.727471324501452e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933331.9164952312</v>
+        <v>933331.9164952311</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933331.9164952311</v>
+        <v>933331.9164952312</v>
       </c>
     </row>
     <row r="7">
@@ -26314,31 +26314,31 @@
         <v>268668.4211729637</v>
       </c>
       <c r="C2" t="n">
-        <v>268668.4211729637</v>
+        <v>268668.4211729636</v>
       </c>
       <c r="D2" t="n">
         <v>268668.4211729637</v>
       </c>
       <c r="E2" t="n">
-        <v>233332.9791238079</v>
+        <v>233332.979123808</v>
       </c>
       <c r="F2" t="n">
-        <v>233332.9791238079</v>
+        <v>233332.9791238078</v>
       </c>
       <c r="G2" t="n">
+        <v>268668.4211729638</v>
+      </c>
+      <c r="H2" t="n">
         <v>268668.4211729637</v>
-      </c>
-      <c r="H2" t="n">
-        <v>268668.4211729639</v>
       </c>
       <c r="I2" t="n">
         <v>268668.4211729637</v>
       </c>
       <c r="J2" t="n">
-        <v>268668.421172964</v>
+        <v>268668.4211729638</v>
       </c>
       <c r="K2" t="n">
-        <v>268668.4211729641</v>
+        <v>268668.4211729639</v>
       </c>
       <c r="L2" t="n">
         <v>268668.4211729637</v>
@@ -26347,7 +26347,7 @@
         <v>268668.4211729637</v>
       </c>
       <c r="N2" t="n">
-        <v>268668.4211729637</v>
+        <v>268668.4211729638</v>
       </c>
       <c r="O2" t="n">
         <v>268668.4211729637</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506508</v>
+        <v>165529.9134506507</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746846</v>
+        <v>9743.038208746917</v>
       </c>
       <c r="E3" t="n">
         <v>107390.8010757635</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59387.68618193923</v>
+        <v>59387.68618193921</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>210668.4794422431</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207622</v>
+        <v>65879.57388207631</v>
       </c>
       <c r="M3" t="n">
-        <v>23482.50932456558</v>
+        <v>23482.50932456565</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.1689073237</v>
+        <v>43541.1689073236</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194229.0330603501</v>
+        <v>194229.0330603502</v>
       </c>
       <c r="C4" t="n">
         <v>194229.0330603502</v>
@@ -26442,13 +26442,13 @@
         <v>176368.812935792</v>
       </c>
       <c r="K4" t="n">
-        <v>176368.8129357921</v>
+        <v>176368.812935792</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
       </c>
       <c r="M4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
       <c r="N4" t="n">
         <v>175623.1205402357</v>
@@ -26457,7 +26457,7 @@
         <v>175623.1205402357</v>
       </c>
       <c r="P4" t="n">
-        <v>175623.1205402356</v>
+        <v>175623.1205402357</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63659.01753266582</v>
+        <v>63659.01753266581</v>
       </c>
       <c r="C5" t="n">
-        <v>63659.01753266582</v>
+        <v>63659.01753266581</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
@@ -26488,10 +26488,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="I5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="J5" t="n">
-        <v>58458.01489582854</v>
+        <v>58458.01489582856</v>
       </c>
       <c r="K5" t="n">
         <v>58458.01489582856</v>
@@ -26500,7 +26500,7 @@
         <v>57233.20592541149</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26522,46 +26522,46 @@
         <v>-154749.542870703</v>
       </c>
       <c r="C6" t="n">
-        <v>10780.3705799477</v>
+        <v>10780.37057994763</v>
       </c>
       <c r="D6" t="n">
-        <v>7583.58899401236</v>
+        <v>7583.588994012243</v>
       </c>
       <c r="E6" t="n">
-        <v>-38801.53494289453</v>
+        <v>-39053.93095753128</v>
       </c>
       <c r="F6" t="n">
-        <v>68589.26613286891</v>
+        <v>68336.87011823199</v>
       </c>
       <c r="G6" t="n">
-        <v>-19145.20244185757</v>
+        <v>-19145.20244185743</v>
       </c>
       <c r="H6" t="n">
-        <v>40242.48374008181</v>
+        <v>40242.48374008166</v>
       </c>
       <c r="I6" t="n">
-        <v>40242.48374008172</v>
+        <v>40242.48374008162</v>
       </c>
       <c r="J6" t="n">
-        <v>-176826.8861008997</v>
+        <v>-176826.8861008999</v>
       </c>
       <c r="K6" t="n">
         <v>33841.59334134334</v>
       </c>
       <c r="L6" t="n">
-        <v>-30645.17516592474</v>
+        <v>-30645.17516592477</v>
       </c>
       <c r="M6" t="n">
-        <v>16759.97441551616</v>
+        <v>16759.97441551606</v>
       </c>
       <c r="N6" t="n">
+        <v>40242.48374008178</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-3298.685167241871</v>
+      </c>
+      <c r="P6" t="n">
         <v>40242.48374008166</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-3298.685167241987</v>
-      </c>
-      <c r="P6" t="n">
-        <v>40242.48374008169</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F2" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26707,10 +26707,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J2" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K2" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="L2" t="n">
         <v>136.7759284867499</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662139</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662139</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
@@ -26808,25 +26808,25 @@
         <v>638.7584295260717</v>
       </c>
       <c r="I4" t="n">
+        <v>638.7584295260718</v>
+      </c>
+      <c r="J4" t="n">
+        <v>783.5790706859295</v>
+      </c>
+      <c r="K4" t="n">
+        <v>783.5790706859295</v>
+      </c>
+      <c r="L4" t="n">
+        <v>752.2136577871532</v>
+      </c>
+      <c r="M4" t="n">
+        <v>638.7584295260718</v>
+      </c>
+      <c r="N4" t="n">
         <v>638.7584295260717</v>
       </c>
-      <c r="J4" t="n">
-        <v>783.579070685929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>783.5790706859293</v>
-      </c>
-      <c r="L4" t="n">
-        <v>752.2136577871531</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="N4" t="n">
-        <v>638.7584295260716</v>
-      </c>
-      <c r="O4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
         <v>638.7584295260717</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742403</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415462</v>
+        <v>54.42646113415449</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259528</v>
+        <v>82.34946735259538</v>
       </c>
       <c r="M2" t="n">
-        <v>29.35313665570698</v>
+        <v>29.35313665570706</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415462</v>
+        <v>54.42646113415449</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662139</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877619</v>
+        <v>31.36541289877641</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260714</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742403</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415462</v>
+        <v>54.42646113415449</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662139</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877619</v>
+        <v>31.36541289877641</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>165.5945326536403</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>213.096910125911</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -27439,13 +27439,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,22 +27458,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>71.30115172964038</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>13.5613137966007</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>99.71558964164933</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27588,13 +27588,13 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>113.1923106806471</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
@@ -27622,19 +27622,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>193.429170109915</v>
       </c>
       <c r="H5" t="n">
-        <v>3.524201805820326</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27682,7 +27682,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7.221723269070282</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>134.163924694857</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>85.97226933962089</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>29.1179807733522</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27825,7 +27825,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>346.8695527896182</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27913,10 +27913,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>300.1849229015664</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27935,19 +27935,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>95.13598719576729</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>20.58306852033417</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>50.85837286816491</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>144.9523963322325</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J11" t="n">
-        <v>79.49647998155558</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K11" t="n">
-        <v>91.8944574150329</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M11" t="n">
-        <v>91.8944574150329</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>79.49647998155564</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="12">
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>14.5654912855037</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5654912855039</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J14" t="n">
-        <v>91.8944574150329</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>79.49647998155584</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M14" t="n">
-        <v>91.8944574150329</v>
+        <v>79.49647998155569</v>
       </c>
       <c r="N14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>91.8944574150329</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>14.56549128550374</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.56549128550371</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.8944574150329</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="17">
@@ -28585,13 +28585,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,13 +28600,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>40.58157162934941</v>
+        <v>40.58157162934918</v>
       </c>
       <c r="P17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>166.1290651424569</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>46.68561682995299</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28822,31 +28822,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J20" t="n">
-        <v>40.58157162934931</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M20" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>166.1290651424569</v>
@@ -28989,10 +28989,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="N22" t="n">
-        <v>46.68561682995299</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29059,25 +29059,25 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
-        <v>116.978733132701</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>116.9787331327015</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="M23" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.56549128550375</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29171,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29199,10 +29199,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29211,7 +29211,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I25" t="n">
         <v>142.7610139533483</v>
@@ -29229,10 +29229,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>8.107438507910302</v>
       </c>
       <c r="O25" t="n">
-        <v>46.68561682995295</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="C26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="D26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="E26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="F26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="G26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="H26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="J26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="L26" t="n">
-        <v>83.11144176675748</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="M26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="O26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="P26" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176676083</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="R26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="U26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="V26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="W26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="X26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>14.5654912855035</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="C28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="D28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="E28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="F28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="G28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6610688615787</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="L28" t="n">
-        <v>128.6610688615787</v>
+        <v>46.54597631296818</v>
       </c>
       <c r="M28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="N28" t="n">
-        <v>128.6610688615787</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>15.49354158420338</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.6610688615787</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="S28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="T28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="U28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="V28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="X28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="C29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="D29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="E29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="F29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="G29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="H29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="J29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="L29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="M29" t="n">
-        <v>83.11144176675862</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="O29" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176676106</v>
       </c>
       <c r="P29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="S29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="U29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="W29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="X29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
     </row>
     <row r="30">
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>14.56549128550355</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="C31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="D31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="E31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="F31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="G31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="H31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="I31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>128.6610688615787</v>
+        <v>15.49354158420655</v>
       </c>
       <c r="N31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="O31" t="n">
-        <v>84.69794424581201</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="P31" t="n">
-        <v>128.6610688615787</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="R31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="S31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="U31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="V31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="W31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.6610688615787</v>
+        <v>128.6610688615785</v>
       </c>
     </row>
     <row r="32">
@@ -29770,19 +29770,19 @@
         <v>136.7759284867499</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="L32" t="n">
-        <v>30.77413106708548</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="M32" t="n">
         <v>136.7759284867499</v>
       </c>
       <c r="N32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708707</v>
       </c>
       <c r="O32" t="n">
         <v>136.7759284867499</v>
@@ -29791,7 +29791,7 @@
         <v>136.7759284867499</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="R32" t="n">
         <v>136.7759284867499</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>14.56549128550367</v>
       </c>
     </row>
     <row r="34">
@@ -29937,10 +29937,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="N34" t="n">
-        <v>115.9971141011257</v>
+        <v>77.84514616827876</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.7759284867499</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30010,28 +30010,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>116.9787331327013</v>
       </c>
       <c r="Q35" t="n">
-        <v>40.5815716293491</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550327</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30247,28 +30247,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
-        <v>116.9787331327005</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>40.58157162934924</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30387,10 +30387,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.68561682995293</v>
+        <v>15.87225906581409</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30484,10 +30484,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L41" t="n">
-        <v>40.58157162934941</v>
+        <v>40.5815716293493</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>166.1290651424569</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>46.68561682995296</v>
+        <v>46.68561682995298</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30718,23 +30718,23 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>40.58157162934953</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>166.1290651424569</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30876,10 +30876,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1422830299227</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>46.6856168299533</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>242.5660323684674</v>
+        <v>118.371670183413</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34714,10 +34714,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>201.6532642216033</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>206.2450206550644</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34787,16 +34787,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>493.9377883662139</v>
       </c>
       <c r="O3" t="n">
-        <v>339.1602864248795</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34948,10 +34948,10 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>256.6168789721582</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>106.2671493867165</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>50.38658588306304</v>
+        <v>111.2493601589272</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>493.9377883662141</v>
+        <v>493.9377883662139</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35258,10 +35258,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>101.5585911716093</v>
       </c>
       <c r="N9" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152.2222822773189</v>
+        <v>164.6202597107962</v>
       </c>
       <c r="K11" t="n">
-        <v>334.4604897835003</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>443.2938241675038</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M11" t="n">
-        <v>489.1057364585561</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>474.0473449783821</v>
+        <v>474.0473449783822</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>309.9579915533266</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>187.2805722499188</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927719</v>
+        <v>2.162553775927734</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.4377912150639</v>
+        <v>32.43779121506392</v>
       </c>
       <c r="K13" t="n">
         <v>125.8380813995212</v>
@@ -35586,7 +35586,7 @@
         <v>155.4989864333539</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218505</v>
+        <v>53.74248948218506</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>164.6202597107962</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>322.0625123500233</v>
+        <v>334.4604897835003</v>
       </c>
       <c r="L14" t="n">
-        <v>351.3993667524709</v>
+        <v>443.2938241675039</v>
       </c>
       <c r="M14" t="n">
-        <v>489.1057364585561</v>
+        <v>476.7077590250789</v>
       </c>
       <c r="N14" t="n">
-        <v>474.0473449783821</v>
+        <v>474.0473449783822</v>
       </c>
       <c r="O14" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>322.3559689868038</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>187.2805722499188</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927719</v>
+        <v>2.162553775927734</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.4377912150639</v>
+        <v>32.43779121506392</v>
       </c>
       <c r="K16" t="n">
         <v>125.8380813995212</v>
@@ -35823,7 +35823,7 @@
         <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218505</v>
+        <v>53.74248948218506</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
@@ -35896,13 +35896,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>348.6670104907978</v>
+        <v>348.6670104907976</v>
       </c>
       <c r="P17" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
         <v>76.39716150335175</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>33.9436239844883</v>
@@ -36051,7 +36051,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N19" t="n">
-        <v>119.6185270197983</v>
+        <v>166.3041438497513</v>
       </c>
       <c r="O19" t="n">
         <v>99.45822878352493</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>113.3073739251126</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>499.1316206960502</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
@@ -36139,10 +36139,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R20" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1853597248502</v>
+        <v>165.8709765548032</v>
       </c>
       <c r="N22" t="n">
-        <v>166.3041438497513</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>189.7045354284643</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>517.5284318949278</v>
+        <v>468.3780998851724</v>
       </c>
       <c r="M23" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
         <v>382.1528875633492</v>
@@ -36373,7 +36373,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
@@ -36440,7 +36440,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233492</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36495,10 +36495,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -36507,7 +36507,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -36525,10 +36525,10 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
-        <v>119.6185270197983</v>
+        <v>127.7259655277087</v>
       </c>
       <c r="O25" t="n">
-        <v>146.1438456134779</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
         <v>63.604529018321</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.3868711573419</v>
+        <v>201.3868711573418</v>
       </c>
       <c r="K26" t="n">
-        <v>371.2271012300461</v>
+        <v>371.2271012300459</v>
       </c>
       <c r="L26" t="n">
-        <v>434.5108085192284</v>
+        <v>480.0604356140494</v>
       </c>
       <c r="M26" t="n">
-        <v>525.8723479051018</v>
+        <v>525.8723479051017</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249279</v>
+        <v>510.8139564249277</v>
       </c>
       <c r="O26" t="n">
-        <v>436.7465077230271</v>
+        <v>436.746507723027</v>
       </c>
       <c r="P26" t="n">
-        <v>359.1225804333496</v>
+        <v>313.5729533385318</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.0471836964645</v>
+        <v>224.0471836964644</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247347</v>
+        <v>38.92916522247333</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160966</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>33.9436239844883</v>
+        <v>162.6046928460668</v>
       </c>
       <c r="L28" t="n">
-        <v>230.2843813870933</v>
+        <v>148.1692888384828</v>
       </c>
       <c r="M28" t="n">
-        <v>247.8464285864289</v>
+        <v>247.8464285864287</v>
       </c>
       <c r="N28" t="n">
-        <v>248.279595881377</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O28" t="n">
-        <v>114.9517703677283</v>
+        <v>228.1192976451034</v>
       </c>
       <c r="P28" t="n">
-        <v>63.604529018321</v>
+        <v>192.2655978798995</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.5091009287308</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.386871157342</v>
+        <v>201.3868711573418</v>
       </c>
       <c r="K29" t="n">
-        <v>371.2271012300462</v>
+        <v>371.2271012300459</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140497</v>
+        <v>480.0604356140494</v>
       </c>
       <c r="M29" t="n">
-        <v>480.3227208102818</v>
+        <v>525.8723479051017</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249279</v>
+        <v>510.8139564249277</v>
       </c>
       <c r="O29" t="n">
-        <v>436.7465077230272</v>
+        <v>391.1968806282095</v>
       </c>
       <c r="P29" t="n">
-        <v>359.1225804333496</v>
+        <v>359.1225804333494</v>
       </c>
       <c r="Q29" t="n">
-        <v>224.0471836964646</v>
+        <v>224.0471836964644</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247353</v>
+        <v>38.92916522247333</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.20440266160952</v>
       </c>
       <c r="K31" t="n">
-        <v>33.9436239844883</v>
+        <v>162.6046928460668</v>
       </c>
       <c r="L31" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
-        <v>247.8464285864289</v>
+        <v>134.6789013090568</v>
       </c>
       <c r="N31" t="n">
-        <v>248.2795958813771</v>
+        <v>248.2795958813768</v>
       </c>
       <c r="O31" t="n">
-        <v>184.1561730293369</v>
+        <v>228.1192976451034</v>
       </c>
       <c r="P31" t="n">
-        <v>192.2655978798997</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.50910092873086</v>
+        <v>90.50910092873066</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>209.5017307825132</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>379.3419608552174</v>
+        <v>379.3419608552173</v>
       </c>
       <c r="L32" t="n">
-        <v>382.1734978195564</v>
+        <v>488.1752952392208</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
       </c>
       <c r="N32" t="n">
-        <v>518.9288160500992</v>
+        <v>412.9270186304363</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481984</v>
+        <v>444.8613673481983</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>367.2374400585208</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488586</v>
+        <v>232.1620433216357</v>
       </c>
       <c r="R32" t="n">
-        <v>47.04402484764475</v>
+        <v>47.04402484764469</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.31926228678094</v>
+        <v>77.31926228678088</v>
       </c>
       <c r="K34" t="n">
         <v>170.7195524712382</v>
@@ -37233,10 +37233,10 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>255.9612882116001</v>
       </c>
       <c r="N34" t="n">
-        <v>235.615641120924</v>
+        <v>197.4636731880771</v>
       </c>
       <c r="O34" t="n">
         <v>99.45822878352493</v>
@@ -37245,7 +37245,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.62396055390208</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M35" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>347.4402447044723</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.967686464235</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>33.9436239844883</v>
+        <v>80.62924081444125</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
@@ -37482,7 +37482,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,16 +37543,16 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
-        <v>359.5447655011679</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>422.7344591926985</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
@@ -37561,10 +37561,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.39716150335175</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37683,10 +37683,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>110.2901458482739</v>
+        <v>79.47678808413509</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L41" t="n">
-        <v>391.9809383818204</v>
+        <v>391.9809383818202</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37798,7 +37798,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>76.39716150335175</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>80.62924081444126</v>
+        <v>80.62924081444127</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L44" t="n">
-        <v>391.9809383818205</v>
+        <v>468.3780998851718</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039053</v>
       </c>
       <c r="P44" t="n">
         <v>230.4615115717709</v>
@@ -38038,7 +38038,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.3971615033517</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
-        <v>396.1615664486372</v>
+        <v>396.161566448637</v>
       </c>
       <c r="P45" t="n">
         <v>305.147393207775</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>46.68561682995365</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>80.6292408144416</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
